--- a/models/mock-data/Spots.xlsx
+++ b/models/mock-data/Spots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52700" yWindow="-4600" windowWidth="27300" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="11580" yWindow="460" windowWidth="10000" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2579,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="b">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>

--- a/models/mock-data/Spots.xlsx
+++ b/models/mock-data/Spots.xlsx
@@ -707,7 +707,7 @@
     <t>Open</t>
   </si>
   <si>
-    <t>Challenged</t>
+    <t>Challenged Amount</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1096,7 @@
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="B3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       <c r="B5" t="b">
         <v>0</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="B6" t="b">
         <v>0</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="B7" t="b">
         <v>0</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       <c r="B8" t="b">
         <v>0</v>
       </c>
-      <c r="C8" t="b">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="B9" t="b">
         <v>0</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="B10" t="b">
         <v>0</v>
       </c>
-      <c r="C10" t="b">
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="B11" t="b">
         <v>0</v>
       </c>
-      <c r="C11" t="b">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       <c r="B12" t="b">
         <v>0</v>
       </c>
-      <c r="C12" t="b">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="B13" t="b">
         <v>0</v>
       </c>
-      <c r="C13" t="b">
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       <c r="B14" t="b">
         <v>0</v>
       </c>
-      <c r="C14" t="b">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       <c r="B15" t="b">
         <v>0</v>
       </c>
-      <c r="C15" t="b">
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       <c r="B16" t="b">
         <v>0</v>
       </c>
-      <c r="C16" t="b">
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17" t="b">
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18" t="b">
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="B19" t="b">
         <v>0</v>
       </c>
-      <c r="C19" t="b">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       <c r="B20" t="b">
         <v>0</v>
       </c>
-      <c r="C20" t="b">
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="B21" t="b">
         <v>0</v>
       </c>
-      <c r="C21" t="b">
+      <c r="C21">
         <v>0</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="B22" t="b">
         <v>0</v>
       </c>
-      <c r="C22" t="b">
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="B23" t="b">
         <v>0</v>
       </c>
-      <c r="C23" t="b">
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       <c r="B24" t="b">
         <v>0</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C24">
         <v>0</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="B25" t="b">
         <v>0</v>
       </c>
-      <c r="C25" t="b">
+      <c r="C25">
         <v>0</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       <c r="B26" t="b">
         <v>0</v>
       </c>
-      <c r="C26" t="b">
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="B27" t="b">
         <v>0</v>
       </c>
-      <c r="C27" t="b">
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       <c r="B28" t="b">
         <v>0</v>
       </c>
-      <c r="C28" t="b">
+      <c r="C28">
         <v>0</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       <c r="B29" t="b">
         <v>0</v>
       </c>
-      <c r="C29" t="b">
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       <c r="B30" t="b">
         <v>0</v>
       </c>
-      <c r="C30" t="b">
+      <c r="C30">
         <v>0</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="B31" t="b">
         <v>0</v>
       </c>
-      <c r="C31" t="b">
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       <c r="B32" t="b">
         <v>0</v>
       </c>
-      <c r="C32" t="b">
+      <c r="C32">
         <v>0</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       <c r="B33" t="b">
         <v>0</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C33">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="B34" t="b">
         <v>0</v>
       </c>
-      <c r="C34" t="b">
+      <c r="C34">
         <v>0</v>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       <c r="B35" t="b">
         <v>0</v>
       </c>
-      <c r="C35" t="b">
+      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       <c r="B36" t="b">
         <v>0</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C36">
         <v>0</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="B37" t="b">
         <v>0</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C37">
         <v>0</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       <c r="B38" t="b">
         <v>0</v>
       </c>
-      <c r="C38" t="b">
+      <c r="C38">
         <v>0</v>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       <c r="B39" t="b">
         <v>0</v>
       </c>
-      <c r="C39" t="b">
+      <c r="C39">
         <v>0</v>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       <c r="B40" t="b">
         <v>0</v>
       </c>
-      <c r="C40" t="b">
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       <c r="B41" t="b">
         <v>0</v>
       </c>
-      <c r="C41" t="b">
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       <c r="B42" t="b">
         <v>0</v>
       </c>
-      <c r="C42" t="b">
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="B43" t="b">
         <v>0</v>
       </c>
-      <c r="C43" t="b">
+      <c r="C43">
         <v>0</v>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       <c r="B44" t="b">
         <v>0</v>
       </c>
-      <c r="C44" t="b">
+      <c r="C44">
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       <c r="B45" t="b">
         <v>0</v>
       </c>
-      <c r="C45" t="b">
+      <c r="C45">
         <v>0</v>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       <c r="B46" t="b">
         <v>0</v>
       </c>
-      <c r="C46" t="b">
+      <c r="C46">
         <v>0</v>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       <c r="B47" t="b">
         <v>0</v>
       </c>
-      <c r="C47" t="b">
+      <c r="C47">
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="B48" t="b">
         <v>0</v>
       </c>
-      <c r="C48" t="b">
+      <c r="C48">
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="B49" t="b">
         <v>0</v>
       </c>
-      <c r="C49" t="b">
+      <c r="C49">
         <v>0</v>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       <c r="B50" t="b">
         <v>0</v>
       </c>
-      <c r="C50" t="b">
+      <c r="C50">
         <v>0</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       <c r="B51" t="b">
         <v>0</v>
       </c>
-      <c r="C51" t="b">
+      <c r="C51">
         <v>0</v>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="B52" t="b">
         <v>0</v>
       </c>
-      <c r="C52" t="b">
+      <c r="C52">
         <v>0</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="B53" t="b">
         <v>0</v>
       </c>
-      <c r="C53" t="b">
+      <c r="C53">
         <v>0</v>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       <c r="B54" t="b">
         <v>0</v>
       </c>
-      <c r="C54" t="b">
+      <c r="C54">
         <v>0</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="B55" t="b">
         <v>0</v>
       </c>
-      <c r="C55" t="b">
+      <c r="C55">
         <v>0</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       <c r="B56" t="b">
         <v>0</v>
       </c>
-      <c r="C56" t="b">
+      <c r="C56">
         <v>0</v>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="B57" t="b">
         <v>0</v>
       </c>
-      <c r="C57" t="b">
+      <c r="C57">
         <v>0</v>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       <c r="B58" t="b">
         <v>0</v>
       </c>
-      <c r="C58" t="b">
+      <c r="C58">
         <v>0</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="B59" t="b">
         <v>0</v>
       </c>
-      <c r="C59" t="b">
+      <c r="C59">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       <c r="B60" t="b">
         <v>0</v>
       </c>
-      <c r="C60" t="b">
+      <c r="C60">
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       <c r="B61" t="b">
         <v>0</v>
       </c>
-      <c r="C61" t="b">
+      <c r="C61">
         <v>0</v>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       <c r="B62" t="b">
         <v>0</v>
       </c>
-      <c r="C62" t="b">
+      <c r="C62">
         <v>0</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       <c r="B63" t="b">
         <v>0</v>
       </c>
-      <c r="C63" t="b">
+      <c r="C63">
         <v>0</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       <c r="B64" t="b">
         <v>0</v>
       </c>
-      <c r="C64" t="b">
+      <c r="C64">
         <v>0</v>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="B65" t="b">
         <v>0</v>
       </c>
-      <c r="C65" t="b">
+      <c r="C65">
         <v>0</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       <c r="B66" t="b">
         <v>0</v>
       </c>
-      <c r="C66" t="b">
+      <c r="C66">
         <v>0</v>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       <c r="B67" t="b">
         <v>0</v>
       </c>
-      <c r="C67" t="b">
+      <c r="C67">
         <v>0</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       <c r="B68" t="b">
         <v>0</v>
       </c>
-      <c r="C68" t="b">
+      <c r="C68">
         <v>0</v>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="B69" t="b">
         <v>0</v>
       </c>
-      <c r="C69" t="b">
+      <c r="C69">
         <v>0</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       <c r="B70" t="b">
         <v>0</v>
       </c>
-      <c r="C70" t="b">
+      <c r="C70">
         <v>0</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="B71" t="b">
         <v>0</v>
       </c>
-      <c r="C71" t="b">
+      <c r="C71">
         <v>0</v>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       <c r="B72" t="b">
         <v>0</v>
       </c>
-      <c r="C72" t="b">
+      <c r="C72">
         <v>0</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="B73" t="b">
         <v>0</v>
       </c>
-      <c r="C73" t="b">
+      <c r="C73">
         <v>0</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       <c r="B74" t="b">
         <v>0</v>
       </c>
-      <c r="C74" t="b">
+      <c r="C74">
         <v>0</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       <c r="B75" t="b">
         <v>0</v>
       </c>
-      <c r="C75" t="b">
+      <c r="C75">
         <v>0</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="B76" t="b">
         <v>0</v>
       </c>
-      <c r="C76" t="b">
+      <c r="C76">
         <v>0</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="B77" t="b">
         <v>0</v>
       </c>
-      <c r="C77" t="b">
+      <c r="C77">
         <v>0</v>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       <c r="B78" t="b">
         <v>0</v>
       </c>
-      <c r="C78" t="b">
+      <c r="C78">
         <v>0</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       <c r="B79" t="b">
         <v>0</v>
       </c>
-      <c r="C79" t="b">
+      <c r="C79">
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       <c r="B80" t="b">
         <v>0</v>
       </c>
-      <c r="C80" t="b">
+      <c r="C80">
         <v>0</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="B81" t="b">
         <v>0</v>
       </c>
-      <c r="C81" t="b">
+      <c r="C81">
         <v>0</v>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       <c r="B82" t="b">
         <v>0</v>
       </c>
-      <c r="C82" t="b">
+      <c r="C82">
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       <c r="B83" t="b">
         <v>0</v>
       </c>
-      <c r="C83" t="b">
+      <c r="C83">
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       <c r="B84" t="b">
         <v>0</v>
       </c>
-      <c r="C84" t="b">
+      <c r="C84">
         <v>0</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="B85" t="b">
         <v>0</v>
       </c>
-      <c r="C85" t="b">
+      <c r="C85">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       <c r="B86" t="b">
         <v>0</v>
       </c>
-      <c r="C86" t="b">
+      <c r="C86">
         <v>0</v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       <c r="B87" t="b">
         <v>0</v>
       </c>
-      <c r="C87" t="b">
+      <c r="C87">
         <v>0</v>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       <c r="B88" t="b">
         <v>0</v>
       </c>
-      <c r="C88" t="b">
+      <c r="C88">
         <v>0</v>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       <c r="B89" t="b">
         <v>0</v>
       </c>
-      <c r="C89" t="b">
+      <c r="C89">
         <v>0</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       <c r="B90" t="b">
         <v>0</v>
       </c>
-      <c r="C90" t="b">
+      <c r="C90">
         <v>0</v>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       <c r="B91" t="b">
         <v>0</v>
       </c>
-      <c r="C91" t="b">
+      <c r="C91">
         <v>0</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="B92" t="b">
         <v>0</v>
       </c>
-      <c r="C92" t="b">
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="B93" t="b">
         <v>0</v>
       </c>
-      <c r="C93" t="b">
+      <c r="C93">
         <v>0</v>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       <c r="B94" t="b">
         <v>0</v>
       </c>
-      <c r="C94" t="b">
+      <c r="C94">
         <v>0</v>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       <c r="B95" t="b">
         <v>0</v>
       </c>
-      <c r="C95" t="b">
+      <c r="C95">
         <v>0</v>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="B96" t="b">
         <v>0</v>
       </c>
-      <c r="C96" t="b">
+      <c r="C96">
         <v>0</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       <c r="B97" t="b">
         <v>0</v>
       </c>
-      <c r="C97" t="b">
+      <c r="C97">
         <v>0</v>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       <c r="B98" t="b">
         <v>0</v>
       </c>
-      <c r="C98" t="b">
+      <c r="C98">
         <v>0</v>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       <c r="B99" t="b">
         <v>0</v>
       </c>
-      <c r="C99" t="b">
+      <c r="C99">
         <v>0</v>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="B100" t="b">
         <v>0</v>
       </c>
-      <c r="C100" t="b">
+      <c r="C100">
         <v>0</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       <c r="B101" t="b">
         <v>0</v>
       </c>
-      <c r="C101" t="b">
+      <c r="C101">
         <v>0</v>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       <c r="B102" t="b">
         <v>0</v>
       </c>
-      <c r="C102" t="b">
+      <c r="C102">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       <c r="B103" t="b">
         <v>0</v>
       </c>
-      <c r="C103" t="b">
+      <c r="C103">
         <v>0</v>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="B104" t="b">
         <v>0</v>
       </c>
-      <c r="C104" t="b">
+      <c r="C104">
         <v>0</v>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       <c r="B105" t="b">
         <v>0</v>
       </c>
-      <c r="C105" t="b">
+      <c r="C105">
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       <c r="B106" t="b">
         <v>0</v>
       </c>
-      <c r="C106" t="b">
+      <c r="C106">
         <v>0</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       <c r="B107" t="b">
         <v>0</v>
       </c>
-      <c r="C107" t="b">
+      <c r="C107">
         <v>0</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       <c r="B108" t="b">
         <v>0</v>
       </c>
-      <c r="C108" t="b">
+      <c r="C108">
         <v>0</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       <c r="B109" t="b">
         <v>0</v>
       </c>
-      <c r="C109" t="b">
+      <c r="C109">
         <v>0</v>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       <c r="B110" t="b">
         <v>0</v>
       </c>
-      <c r="C110" t="b">
+      <c r="C110">
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       <c r="B111" t="b">
         <v>0</v>
       </c>
-      <c r="C111" t="b">
+      <c r="C111">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       <c r="B112" t="b">
         <v>0</v>
       </c>
-      <c r="C112" t="b">
+      <c r="C112">
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       <c r="B113" t="b">
         <v>0</v>
       </c>
-      <c r="C113" t="b">
+      <c r="C113">
         <v>0</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       <c r="B114" t="b">
         <v>0</v>
       </c>
-      <c r="C114" t="b">
+      <c r="C114">
         <v>0</v>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       <c r="B115" t="b">
         <v>0</v>
       </c>
-      <c r="C115" t="b">
+      <c r="C115">
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       <c r="B116" t="b">
         <v>0</v>
       </c>
-      <c r="C116" t="b">
+      <c r="C116">
         <v>0</v>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       <c r="B117" t="b">
         <v>0</v>
       </c>
-      <c r="C117" t="b">
+      <c r="C117">
         <v>0</v>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       <c r="B118" t="b">
         <v>0</v>
       </c>
-      <c r="C118" t="b">
+      <c r="C118">
         <v>0</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       <c r="B119" t="b">
         <v>0</v>
       </c>
-      <c r="C119" t="b">
+      <c r="C119">
         <v>0</v>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="B120" t="b">
         <v>0</v>
       </c>
-      <c r="C120" t="b">
+      <c r="C120">
         <v>0</v>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       <c r="B121" t="b">
         <v>0</v>
       </c>
-      <c r="C121" t="b">
+      <c r="C121">
         <v>0</v>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       <c r="B122" t="b">
         <v>0</v>
       </c>
-      <c r="C122" t="b">
+      <c r="C122">
         <v>0</v>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       <c r="B123" t="b">
         <v>0</v>
       </c>
-      <c r="C123" t="b">
+      <c r="C123">
         <v>0</v>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       <c r="B124" t="b">
         <v>0</v>
       </c>
-      <c r="C124" t="b">
+      <c r="C124">
         <v>0</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       <c r="B125" t="b">
         <v>0</v>
       </c>
-      <c r="C125" t="b">
+      <c r="C125">
         <v>0</v>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       <c r="B126" t="b">
         <v>0</v>
       </c>
-      <c r="C126" t="b">
+      <c r="C126">
         <v>0</v>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       <c r="B127" t="b">
         <v>0</v>
       </c>
-      <c r="C127" t="b">
+      <c r="C127">
         <v>0</v>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       <c r="B128" t="b">
         <v>0</v>
       </c>
-      <c r="C128" t="b">
+      <c r="C128">
         <v>0</v>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       <c r="B129" t="b">
         <v>0</v>
       </c>
-      <c r="C129" t="b">
+      <c r="C129">
         <v>0</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       <c r="B130" t="b">
         <v>0</v>
       </c>
-      <c r="C130" t="b">
+      <c r="C130">
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="B131" t="b">
         <v>0</v>
       </c>
-      <c r="C131" t="b">
+      <c r="C131">
         <v>0</v>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       <c r="B132" t="b">
         <v>0</v>
       </c>
-      <c r="C132" t="b">
+      <c r="C132">
         <v>0</v>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       <c r="B133" t="b">
         <v>0</v>
       </c>
-      <c r="C133" t="b">
+      <c r="C133">
         <v>0</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       <c r="B134" t="b">
         <v>0</v>
       </c>
-      <c r="C134" t="b">
+      <c r="C134">
         <v>0</v>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       <c r="B135" t="b">
         <v>0</v>
       </c>
-      <c r="C135" t="b">
+      <c r="C135">
         <v>0</v>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       <c r="B136" t="b">
         <v>0</v>
       </c>
-      <c r="C136" t="b">
+      <c r="C136">
         <v>0</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       <c r="B137" t="b">
         <v>1</v>
       </c>
-      <c r="C137" t="b">
+      <c r="C137">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       <c r="B138" t="b">
         <v>0</v>
       </c>
-      <c r="C138" t="b">
+      <c r="C138">
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="B139" t="b">
         <v>0</v>
       </c>
-      <c r="C139" t="b">
+      <c r="C139">
         <v>0</v>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       <c r="B140" t="b">
         <v>0</v>
       </c>
-      <c r="C140" t="b">
+      <c r="C140">
         <v>0</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       <c r="B141" t="b">
         <v>0</v>
       </c>
-      <c r="C141" t="b">
+      <c r="C141">
         <v>0</v>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="B142" t="b">
         <v>0</v>
       </c>
-      <c r="C142" t="b">
+      <c r="C142">
         <v>0</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       <c r="B143" t="b">
         <v>0</v>
       </c>
-      <c r="C143" t="b">
+      <c r="C143">
         <v>0</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="B144" t="b">
         <v>0</v>
       </c>
-      <c r="C144" t="b">
+      <c r="C144">
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="B145" t="b">
         <v>0</v>
       </c>
-      <c r="C145" t="b">
+      <c r="C145">
         <v>0</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       <c r="B146" t="b">
         <v>0</v>
       </c>
-      <c r="C146" t="b">
+      <c r="C146">
         <v>0</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="B147" t="b">
         <v>0</v>
       </c>
-      <c r="C147" t="b">
+      <c r="C147">
         <v>0</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="B148" t="b">
         <v>0</v>
       </c>
-      <c r="C148" t="b">
+      <c r="C148">
         <v>0</v>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="B149" t="b">
         <v>0</v>
       </c>
-      <c r="C149" t="b">
+      <c r="C149">
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       <c r="B150" t="b">
         <v>0</v>
       </c>
-      <c r="C150" t="b">
+      <c r="C150">
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       <c r="B151" t="b">
         <v>1</v>
       </c>
-      <c r="C151" t="b">
+      <c r="C151">
         <v>0</v>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       <c r="B152" t="b">
         <v>0</v>
       </c>
-      <c r="C152" t="b">
+      <c r="C152">
         <v>0</v>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       <c r="B153" t="b">
         <v>0</v>
       </c>
-      <c r="C153" t="b">
+      <c r="C153">
         <v>0</v>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       <c r="B154" t="b">
         <v>0</v>
       </c>
-      <c r="C154" t="b">
+      <c r="C154">
         <v>0</v>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       <c r="B155" t="b">
         <v>0</v>
       </c>
-      <c r="C155" t="b">
+      <c r="C155">
         <v>0</v>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="B156" t="b">
         <v>0</v>
       </c>
-      <c r="C156" t="b">
+      <c r="C156">
         <v>0</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="B157" t="b">
         <v>0</v>
       </c>
-      <c r="C157" t="b">
+      <c r="C157">
         <v>0</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="B158" t="b">
         <v>0</v>
       </c>
-      <c r="C158" t="b">
+      <c r="C158">
         <v>0</v>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       <c r="B159" t="b">
         <v>0</v>
       </c>
-      <c r="C159" t="b">
+      <c r="C159">
         <v>0</v>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       <c r="B160" t="b">
         <v>0</v>
       </c>
-      <c r="C160" t="b">
+      <c r="C160">
         <v>0</v>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       <c r="B161" t="b">
         <v>0</v>
       </c>
-      <c r="C161" t="b">
+      <c r="C161">
         <v>0</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="B162" t="b">
         <v>0</v>
       </c>
-      <c r="C162" t="b">
+      <c r="C162">
         <v>0</v>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       <c r="B163" t="b">
         <v>0</v>
       </c>
-      <c r="C163" t="b">
+      <c r="C163">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       <c r="B164" t="b">
         <v>0</v>
       </c>
-      <c r="C164" t="b">
+      <c r="C164">
         <v>0</v>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       <c r="B165" t="b">
         <v>0</v>
       </c>
-      <c r="C165" t="b">
+      <c r="C165">
         <v>0</v>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       <c r="B166" t="b">
         <v>0</v>
       </c>
-      <c r="C166" t="b">
+      <c r="C166">
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       <c r="B167" t="b">
         <v>0</v>
       </c>
-      <c r="C167" t="b">
+      <c r="C167">
         <v>0</v>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       <c r="B168" t="b">
         <v>0</v>
       </c>
-      <c r="C168" t="b">
+      <c r="C168">
         <v>0</v>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       <c r="B169" t="b">
         <v>0</v>
       </c>
-      <c r="C169" t="b">
+      <c r="C169">
         <v>0</v>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       <c r="B170" t="b">
         <v>0</v>
       </c>
-      <c r="C170" t="b">
+      <c r="C170">
         <v>0</v>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       <c r="B171" t="b">
         <v>0</v>
       </c>
-      <c r="C171" t="b">
+      <c r="C171">
         <v>0</v>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       <c r="B172" t="b">
         <v>0</v>
       </c>
-      <c r="C172" t="b">
+      <c r="C172">
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       <c r="B173" t="b">
         <v>0</v>
       </c>
-      <c r="C173" t="b">
+      <c r="C173">
         <v>0</v>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       <c r="B174" t="b">
         <v>0</v>
       </c>
-      <c r="C174" t="b">
+      <c r="C174">
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       <c r="B175" t="b">
         <v>1</v>
       </c>
-      <c r="C175" t="b">
+      <c r="C175">
         <v>0</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       <c r="B176" t="b">
         <v>0</v>
       </c>
-      <c r="C176" t="b">
+      <c r="C176">
         <v>0</v>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       <c r="B177" t="b">
         <v>0</v>
       </c>
-      <c r="C177" t="b">
+      <c r="C177">
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
       <c r="B178" t="b">
         <v>0</v>
       </c>
-      <c r="C178" t="b">
+      <c r="C178">
         <v>0</v>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       <c r="B179" t="b">
         <v>0</v>
       </c>
-      <c r="C179" t="b">
+      <c r="C179">
         <v>0</v>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       <c r="B180" t="b">
         <v>0</v>
       </c>
-      <c r="C180" t="b">
+      <c r="C180">
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       <c r="B181" t="b">
         <v>0</v>
       </c>
-      <c r="C181" t="b">
+      <c r="C181">
         <v>0</v>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       <c r="B182" t="b">
         <v>0</v>
       </c>
-      <c r="C182" t="b">
+      <c r="C182">
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       <c r="B183" t="b">
         <v>0</v>
       </c>
-      <c r="C183" t="b">
+      <c r="C183">
         <v>0</v>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       <c r="B184" t="b">
         <v>0</v>
       </c>
-      <c r="C184" t="b">
+      <c r="C184">
         <v>0</v>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       <c r="B185" t="b">
         <v>0</v>
       </c>
-      <c r="C185" t="b">
+      <c r="C185">
         <v>0</v>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       <c r="B186" t="b">
         <v>0</v>
       </c>
-      <c r="C186" t="b">
+      <c r="C186">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       <c r="B187" t="b">
         <v>0</v>
       </c>
-      <c r="C187" t="b">
+      <c r="C187">
         <v>0</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       <c r="B188" t="b">
         <v>0</v>
       </c>
-      <c r="C188" t="b">
+      <c r="C188">
         <v>0</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="B189" t="b">
         <v>0</v>
       </c>
-      <c r="C189" t="b">
+      <c r="C189">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       <c r="B190" t="b">
         <v>0</v>
       </c>
-      <c r="C190" t="b">
+      <c r="C190">
         <v>0</v>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       <c r="B191" t="b">
         <v>0</v>
       </c>
-      <c r="C191" t="b">
+      <c r="C191">
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       <c r="B192" t="b">
         <v>0</v>
       </c>
-      <c r="C192" t="b">
+      <c r="C192">
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="B193" t="b">
         <v>0</v>
       </c>
-      <c r="C193" t="b">
+      <c r="C193">
         <v>0</v>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="B194" t="b">
         <v>0</v>
       </c>
-      <c r="C194" t="b">
+      <c r="C194">
         <v>0</v>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       <c r="B195" t="b">
         <v>0</v>
       </c>
-      <c r="C195" t="b">
+      <c r="C195">
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       <c r="B196" t="b">
         <v>0</v>
       </c>
-      <c r="C196" t="b">
+      <c r="C196">
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       <c r="B197" t="b">
         <v>0</v>
       </c>
-      <c r="C197" t="b">
+      <c r="C197">
         <v>0</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="B198" t="b">
         <v>0</v>
       </c>
-      <c r="C198" t="b">
+      <c r="C198">
         <v>0</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       <c r="B199" t="b">
         <v>0</v>
       </c>
-      <c r="C199" t="b">
+      <c r="C199">
         <v>0</v>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
       <c r="B200" t="b">
         <v>0</v>
       </c>
-      <c r="C200" t="b">
+      <c r="C200">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       <c r="B201" t="b">
         <v>0</v>
       </c>
-      <c r="C201" t="b">
+      <c r="C201">
         <v>0</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       <c r="B202" t="b">
         <v>0</v>
       </c>
-      <c r="C202" t="b">
+      <c r="C202">
         <v>0</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="B203" t="b">
         <v>0</v>
       </c>
-      <c r="C203" t="b">
+      <c r="C203">
         <v>0</v>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="B204" t="b">
         <v>0</v>
       </c>
-      <c r="C204" t="b">
+      <c r="C204">
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       <c r="B205" t="b">
         <v>0</v>
       </c>
-      <c r="C205" t="b">
+      <c r="C205">
         <v>0</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       <c r="B206" t="b">
         <v>0</v>
       </c>
-      <c r="C206" t="b">
+      <c r="C206">
         <v>0</v>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       <c r="B207" t="b">
         <v>0</v>
       </c>
-      <c r="C207" t="b">
+      <c r="C207">
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       <c r="B208" t="b">
         <v>0</v>
       </c>
-      <c r="C208" t="b">
+      <c r="C208">
         <v>0</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="B209" t="b">
         <v>0</v>
       </c>
-      <c r="C209" t="b">
+      <c r="C209">
         <v>0</v>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       <c r="B210" t="b">
         <v>0</v>
       </c>
-      <c r="C210" t="b">
+      <c r="C210">
         <v>0</v>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="B211" t="b">
         <v>0</v>
       </c>
-      <c r="C211" t="b">
+      <c r="C211">
         <v>0</v>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       <c r="B212" t="b">
         <v>0</v>
       </c>
-      <c r="C212" t="b">
+      <c r="C212">
         <v>0</v>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       <c r="B213" t="b">
         <v>0</v>
       </c>
-      <c r="C213" t="b">
+      <c r="C213">
         <v>0</v>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
       <c r="B214" t="b">
         <v>0</v>
       </c>
-      <c r="C214" t="b">
+      <c r="C214">
         <v>0</v>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       <c r="B215" t="b">
         <v>0</v>
       </c>
-      <c r="C215" t="b">
+      <c r="C215">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3450,7 @@
       <c r="B216" t="b">
         <v>0</v>
       </c>
-      <c r="C216" t="b">
+      <c r="C216">
         <v>0</v>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       <c r="B217" t="b">
         <v>0</v>
       </c>
-      <c r="C217" t="b">
+      <c r="C217">
         <v>0</v>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       <c r="B218" t="b">
         <v>0</v>
       </c>
-      <c r="C218" t="b">
+      <c r="C218">
         <v>0</v>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
       <c r="B219" t="b">
         <v>0</v>
       </c>
-      <c r="C219" t="b">
+      <c r="C219">
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="B220" t="b">
         <v>0</v>
       </c>
-      <c r="C220" t="b">
+      <c r="C220">
         <v>0</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       <c r="B221" t="b">
         <v>0</v>
       </c>
-      <c r="C221" t="b">
+      <c r="C221">
         <v>0</v>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       <c r="B222" t="b">
         <v>0</v>
       </c>
-      <c r="C222" t="b">
+      <c r="C222">
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       <c r="B223" t="b">
         <v>0</v>
       </c>
-      <c r="C223" t="b">
+      <c r="C223">
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       <c r="B224" t="b">
         <v>0</v>
       </c>
-      <c r="C224" t="b">
+      <c r="C224">
         <v>0</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       <c r="B225" t="b">
         <v>0</v>
       </c>
-      <c r="C225" t="b">
+      <c r="C225">
         <v>0</v>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       <c r="B226" t="b">
         <v>0</v>
       </c>
-      <c r="C226" t="b">
+      <c r="C226">
         <v>0</v>
       </c>
     </row>

--- a/models/mock-data/Spots.xlsx
+++ b/models/mock-data/Spots.xlsx
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1622,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,10 +2128,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,10 +2436,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,10 +2667,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
